--- a/firmware_tests.xlsx
+++ b/firmware_tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TekMason\gitroot\PubDevNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TekMason\gitroot\gitworkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Attribute</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>SD 2655</t>
+  </si>
+  <si>
+    <t>BLF 2655</t>
+  </si>
+  <si>
+    <t>Speed Dial</t>
+  </si>
+  <si>
+    <t>*9664</t>
+  </si>
+  <si>
+    <t>MoH *9664</t>
+  </si>
+  <si>
+    <t>Delete Me</t>
+  </si>
+  <si>
+    <t>Frecord</t>
+  </si>
+  <si>
+    <t>Typical Key Setup for testing</t>
   </si>
 </sst>
 </file>
@@ -237,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -245,11 +269,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,6 +377,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -297,15 +443,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>477214</xdr:colOff>
+      <xdr:colOff>534364</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9778</xdr:rowOff>
+      <xdr:rowOff>114553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,7 +468,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3248025" y="2695575"/>
+          <a:off x="3305175" y="2809875"/>
           <a:ext cx="6906589" cy="1810003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -656,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +1047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -910,17 +1056,19 @@
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="E14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -930,22 +1078,33 @@
       <c r="A15" s="4">
         <v>14</v>
       </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -955,17 +1114,17 @@
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
@@ -975,17 +1134,17 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
@@ -995,48 +1154,271 @@
       <c r="A19" s="4">
         <v>18</v>
       </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <v>2655</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>2655</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="19">
+        <v>4</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E28" s="13"/>
+      <c r="F28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="19">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2655</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E29" s="13"/>
+      <c r="F29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="19">
+        <v>6</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="19">
+        <v>1</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E14:O14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
